--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H2">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I2">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J2">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.50783123219685</v>
+        <v>4.233575666666667</v>
       </c>
       <c r="N2">
-        <v>2.50783123219685</v>
+        <v>12.700727</v>
       </c>
       <c r="O2">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="P2">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="Q2">
-        <v>18.06643924344479</v>
+        <v>39.35137934957955</v>
       </c>
       <c r="R2">
-        <v>18.06643924344479</v>
+        <v>354.162414146216</v>
       </c>
       <c r="S2">
-        <v>0.08399900486019669</v>
+        <v>0.1340844545901989</v>
       </c>
       <c r="T2">
-        <v>0.08399900486019669</v>
+        <v>0.1340844545901989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H3">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I3">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J3">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54773652405257</v>
+        <v>3.605649999999999</v>
       </c>
       <c r="N3">
-        <v>3.54773652405257</v>
+        <v>10.81695</v>
       </c>
       <c r="O3">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="P3">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="Q3">
-        <v>25.55792652259092</v>
+        <v>33.51476674173333</v>
       </c>
       <c r="R3">
-        <v>25.55792652259092</v>
+        <v>301.6329006756</v>
       </c>
       <c r="S3">
-        <v>0.1188302999422879</v>
+        <v>0.1141969936901606</v>
       </c>
       <c r="T3">
-        <v>0.1188302999422879</v>
+        <v>0.1141969936901606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H4">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I4">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J4">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.14085039240938</v>
+        <v>1.162819</v>
       </c>
       <c r="N4">
-        <v>1.14085039240938</v>
+        <v>3.488456999999999</v>
       </c>
       <c r="O4">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="P4">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="Q4">
-        <v>8.218696711209295</v>
+        <v>10.80848322711733</v>
       </c>
       <c r="R4">
-        <v>8.218696711209295</v>
+        <v>97.27634904405598</v>
       </c>
       <c r="S4">
-        <v>0.03821241893251559</v>
+        <v>0.03682843149107617</v>
       </c>
       <c r="T4">
-        <v>0.03821241893251559</v>
+        <v>0.03682843149107618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H5">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J5">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.50783123219685</v>
+        <v>4.233575666666667</v>
       </c>
       <c r="N5">
-        <v>2.50783123219685</v>
+        <v>12.700727</v>
       </c>
       <c r="O5">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="P5">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="Q5">
-        <v>21.50324807373599</v>
+        <v>36.35829638972989</v>
       </c>
       <c r="R5">
-        <v>21.50324807373599</v>
+        <v>327.224667507569</v>
       </c>
       <c r="S5">
-        <v>0.09997827547069871</v>
+        <v>0.1238859328903757</v>
       </c>
       <c r="T5">
-        <v>0.09997827547069871</v>
+        <v>0.1238859328903757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H6">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J6">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.54773652405257</v>
+        <v>3.605649999999999</v>
       </c>
       <c r="N6">
-        <v>3.54773652405257</v>
+        <v>10.81695</v>
       </c>
       <c r="O6">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="P6">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="Q6">
-        <v>30.41985345645782</v>
+        <v>30.96561906518333</v>
       </c>
       <c r="R6">
-        <v>30.41985345645782</v>
+        <v>278.6905715866499</v>
       </c>
       <c r="S6">
-        <v>0.1414355858342486</v>
+        <v>0.1055111208813913</v>
       </c>
       <c r="T6">
-        <v>0.1414355858342486</v>
+        <v>0.1055111208813913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H7">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J7">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.14085039240938</v>
+        <v>1.162819</v>
       </c>
       <c r="N7">
-        <v>1.14085039240938</v>
+        <v>3.488456999999999</v>
       </c>
       <c r="O7">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="P7">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="Q7">
-        <v>9.78215307634877</v>
+        <v>9.98638531076433</v>
       </c>
       <c r="R7">
-        <v>9.78215307634877</v>
+        <v>89.87746779687897</v>
       </c>
       <c r="S7">
-        <v>0.04548163103593035</v>
+        <v>0.03402724503825344</v>
       </c>
       <c r="T7">
-        <v>0.04548163103593035</v>
+        <v>0.03402724503825344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H8">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J8">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.50783123219685</v>
+        <v>4.233575666666667</v>
       </c>
       <c r="N8">
-        <v>2.50783123219685</v>
+        <v>12.700727</v>
       </c>
       <c r="O8">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="P8">
-        <v>0.3484832565856718</v>
+        <v>0.4702904532725788</v>
       </c>
       <c r="Q8">
-        <v>35.38181470288826</v>
+        <v>62.31212617483823</v>
       </c>
       <c r="R8">
-        <v>35.38181470288826</v>
+        <v>560.809135573544</v>
       </c>
       <c r="S8">
-        <v>0.1645059762547764</v>
+        <v>0.2123200657920041</v>
       </c>
       <c r="T8">
-        <v>0.1645059762547764</v>
+        <v>0.2123200657920041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H9">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J9">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54773652405257</v>
+        <v>3.605649999999999</v>
       </c>
       <c r="N9">
-        <v>3.54773652405257</v>
+        <v>10.81695</v>
       </c>
       <c r="O9">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="P9">
-        <v>0.4929864344686201</v>
+        <v>0.4005367817548413</v>
       </c>
       <c r="Q9">
-        <v>50.05335075867014</v>
+        <v>53.06996624893333</v>
       </c>
       <c r="R9">
-        <v>50.05335075867014</v>
+        <v>477.6296962403999</v>
       </c>
       <c r="S9">
-        <v>0.2327205486920836</v>
+        <v>0.1808286671832895</v>
       </c>
       <c r="T9">
-        <v>0.2327205486920836</v>
+        <v>0.1808286671832894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H10">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J10">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.14085039240938</v>
+        <v>1.162819</v>
       </c>
       <c r="N10">
-        <v>1.14085039240938</v>
+        <v>3.488456999999999</v>
       </c>
       <c r="O10">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="P10">
-        <v>0.158530308945708</v>
+        <v>0.1291727649725799</v>
       </c>
       <c r="Q10">
-        <v>16.09572313707336</v>
+        <v>17.11501811978933</v>
       </c>
       <c r="R10">
-        <v>16.09572313707336</v>
+        <v>154.035163078104</v>
       </c>
       <c r="S10">
-        <v>0.07483625897726212</v>
+        <v>0.05831708844325031</v>
       </c>
       <c r="T10">
-        <v>0.07483625897726212</v>
+        <v>0.05831708844325031</v>
       </c>
     </row>
   </sheetData>
